--- a/tut04/output_by_subject/CB407.xlsx
+++ b/tut04/output_by_subject/CB407.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,8 +461,425 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORE
-</t>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1801CB05</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CB407</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1801CB20</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CB407</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1801CB21</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CB407</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1801CB11</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CB407</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1801CB23</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CB407</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1801CB14</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CB407</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1801CB09</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CB407</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1801CB22</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CB407</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1801CB07</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CB407</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1801CB25</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CB407</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1801CB28</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CB407</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1801CB15</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CB407</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1801CB18</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>CB407</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1801CB10</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>CB407</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1801CB24</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>CB407</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1801CB04</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>CB407</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1801CB27</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>CB407</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1801CB19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>CB407</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1801CB03</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>CB407</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>CORE</t>
         </is>
       </c>
     </row>
